--- a/data_year/zb/财政/中央和地方预算外资金收支.xlsx
+++ b/data_year/zb/财政/中央和地方预算外资金收支.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,275 +468,25 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.74</v>
+        <v>386.37</v>
       </c>
       <c r="C2" t="n">
-        <v>247.63</v>
+        <v>399.31</v>
       </c>
       <c r="D2" t="n">
-        <v>3529.01</v>
+        <v>5754.69</v>
       </c>
       <c r="E2" t="n">
-        <v>3826.43</v>
+        <v>5794.42</v>
       </c>
       <c r="F2" t="n">
-        <v>3318.28</v>
+        <v>5368.32</v>
       </c>
       <c r="G2" t="n">
-        <v>3578.79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>258.13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>347</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3850</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4300</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3591.87</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>259</v>
-      </c>
-      <c r="C4" t="n">
-        <v>440</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3831</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4479</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3572</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>329.32</v>
-      </c>
-      <c r="C5" t="n">
-        <v>379.37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4156.36</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4566.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3827.04</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4187.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>389.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>350.69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4351.73</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4699.18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3962.23</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4348.49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>458.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>402.58</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5242.48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5544.16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4784.14</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5141.58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>377.72</v>
-      </c>
-      <c r="C8" t="n">
-        <v>467.11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5866.95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6407.88</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5489.23</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5940.77</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>453.3422</v>
-      </c>
-      <c r="C9" t="n">
-        <v>530.3715999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6112.4235</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6820.3205</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5659.0813</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6289.9489</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>402.13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>492.09</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6346.36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6617.25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5944.23</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6125.16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>459.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>352.01</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6228.29</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6414.65</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5769.09</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6062.64</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>386.37</v>
-      </c>
-      <c r="C12" t="n">
-        <v>399.31</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5754.69</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5794.42</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5368.32</v>
-      </c>
-      <c r="G12" t="n">
         <v>5395.11</v>
       </c>
     </row>
